--- a/venv/Lib/Excel/orsa.xlsx
+++ b/venv/Lib/Excel/orsa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zeynep\PycharmProjects\UyumsuzlukEndeksi_chain\venv\Lib\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zeynep\PycharmProjects\Uyumsuzluk_Endeksi_Chain_Sequential\venv\Lib\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t xml:space="preserve">ADI SOYADI </t>
   </si>
@@ -100,16 +100,19 @@
     <t>SEVİYE</t>
   </si>
   <si>
-    <t>GAZİANTEP</t>
-  </si>
-  <si>
     <t>GİRESUN</t>
   </si>
   <si>
-    <t>GÜMÜŞHANE</t>
+    <t>HAKKARİ</t>
   </si>
   <si>
-    <t>HAKKARİ</t>
+    <t>DİYARBAKIR</t>
+  </si>
+  <si>
+    <t>KARABÜK</t>
+  </si>
+  <si>
+    <t>İZMİR</t>
   </si>
 </sst>
 </file>
@@ -566,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:H103"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,10 +701,10 @@
         <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2">
         <v>2</v>
@@ -721,16 +724,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>195</v>
@@ -747,16 +750,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>22</v>
+      <c r="D7" t="s">
+        <v>6</v>
       </c>
       <c r="E7" s="2">
         <v>3</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <v>176</v>
@@ -773,15 +776,15 @@
         <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2">
         <v>3</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8">
@@ -799,10 +802,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2">
         <v>3</v>
@@ -818,2364 +821,680 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>179.066666666667</v>
-      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>182</v>
-      </c>
-      <c r="H11" s="4">
-        <v>969.73</v>
-      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>195</v>
-      </c>
-      <c r="H12" s="4">
-        <v>800</v>
-      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="2">
-        <v>3</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>176</v>
-      </c>
-      <c r="H13" s="4">
-        <v>507.58</v>
-      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="2">
-        <v>3</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>176</v>
-      </c>
-      <c r="H14" s="4">
-        <v>507.58</v>
-      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="2">
-        <v>3</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>176</v>
-      </c>
-      <c r="H15" s="4">
-        <v>507.58</v>
-      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2">
-        <v>3</v>
-      </c>
-      <c r="F16" s="2">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>179.066666666667</v>
-      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>195</v>
-      </c>
-      <c r="H17" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="2">
-        <v>3</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>176</v>
-      </c>
-      <c r="H18" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="2">
-        <v>3</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>176</v>
-      </c>
-      <c r="H19" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="2">
-        <v>3</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>176</v>
-      </c>
-      <c r="H20" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="2">
-        <v>3</v>
-      </c>
-      <c r="F21" s="2">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>179.066666666667</v>
-      </c>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="6"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="6"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2">
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <v>195</v>
-      </c>
-      <c r="H22" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="2">
-        <v>3</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>176</v>
-      </c>
-      <c r="H23" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="2">
-        <v>3</v>
-      </c>
-      <c r="F24" s="2">
-        <v>2</v>
-      </c>
-      <c r="G24">
-        <v>179.066666666667</v>
-      </c>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="6"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="2">
-        <v>3</v>
-      </c>
-      <c r="F25" s="2">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>176</v>
-      </c>
-      <c r="H25" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="2">
-        <v>3</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>176</v>
-      </c>
-      <c r="H26" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="2">
-        <v>3</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>176</v>
-      </c>
-      <c r="H27" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="2">
-        <v>3</v>
-      </c>
-      <c r="F28" s="2">
-        <v>2</v>
-      </c>
-      <c r="G28">
-        <v>179.066666666667</v>
-      </c>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="6"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="6"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29" s="2">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>195</v>
-      </c>
-      <c r="H29" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="2">
-        <v>3</v>
-      </c>
-      <c r="F30" s="2">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>176</v>
-      </c>
-      <c r="H30" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="2">
-        <v>3</v>
-      </c>
-      <c r="F31" s="2">
-        <v>2</v>
-      </c>
-      <c r="G31">
-        <v>179.066666666667</v>
-      </c>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C31" s="5"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="2">
-        <v>3</v>
-      </c>
-      <c r="F32" s="2">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>176</v>
-      </c>
-      <c r="H32" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="2">
-        <v>3</v>
-      </c>
-      <c r="F33" s="2">
-        <v>2</v>
-      </c>
-      <c r="G33">
-        <v>179.066666666667</v>
-      </c>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C32" s="6"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D33" s="6"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="2">
-        <v>1</v>
-      </c>
-      <c r="F34" s="2">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <v>195</v>
-      </c>
-      <c r="H34" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E35" s="2">
-        <v>3</v>
-      </c>
-      <c r="F35" s="2">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>176</v>
-      </c>
-      <c r="H35" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E36" s="2">
-        <v>3</v>
-      </c>
-      <c r="F36" s="2">
-        <v>2</v>
-      </c>
-      <c r="G36">
-        <v>179.066666666667</v>
-      </c>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="5"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="2">
-        <v>3</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>176</v>
-      </c>
-      <c r="H37" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" t="s">
-        <v>2</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="2">
-        <v>3</v>
-      </c>
-      <c r="F38" s="2">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>176</v>
-      </c>
-      <c r="H38" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="2">
-        <v>3</v>
-      </c>
-      <c r="F39" s="2">
-        <v>2</v>
-      </c>
-      <c r="G39">
-        <v>179.066666666667</v>
-      </c>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C37" s="6"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="H37" s="4"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C38" s="6"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2">
-        <v>2</v>
-      </c>
-      <c r="G40">
-        <v>195</v>
-      </c>
-      <c r="H40" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="2">
-        <v>3</v>
-      </c>
-      <c r="F41" s="2">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>176</v>
-      </c>
-      <c r="H41" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="2">
-        <v>3</v>
-      </c>
-      <c r="F42" s="2">
-        <v>2</v>
-      </c>
-      <c r="G42">
-        <v>179.066666666667</v>
-      </c>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="5"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="2">
-        <v>3</v>
-      </c>
-      <c r="F43" s="2">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>176</v>
-      </c>
-      <c r="H43" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="2">
-        <v>3</v>
-      </c>
-      <c r="F44" s="2">
-        <v>2</v>
-      </c>
-      <c r="G44">
-        <v>179.066666666667</v>
-      </c>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C43" s="6"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D44" s="6"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B45" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="2">
-        <v>1</v>
-      </c>
-      <c r="F45" s="2">
-        <v>2</v>
-      </c>
-      <c r="G45">
-        <v>195</v>
-      </c>
-      <c r="H45" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B46" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="2">
-        <v>3</v>
-      </c>
-      <c r="F46" s="2">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>176</v>
-      </c>
-      <c r="H46" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="2">
-        <v>3</v>
-      </c>
-      <c r="F47" s="2">
-        <v>2</v>
-      </c>
-      <c r="G47">
-        <v>179.066666666667</v>
-      </c>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C47" s="5"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" s="2">
-        <v>3</v>
-      </c>
-      <c r="F48" s="2">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>176</v>
-      </c>
-      <c r="H48" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>15</v>
-      </c>
-      <c r="B49" t="s">
-        <v>2</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="2">
-        <v>3</v>
-      </c>
-      <c r="F49" s="2">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>176</v>
-      </c>
-      <c r="H49" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>15</v>
-      </c>
-      <c r="B50" t="s">
-        <v>2</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" s="2">
-        <v>3</v>
-      </c>
-      <c r="F50" s="2">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>176</v>
-      </c>
-      <c r="H50" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>2</v>
-      </c>
-      <c r="C51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="2">
-        <v>3</v>
-      </c>
-      <c r="F51" s="2">
-        <v>2</v>
-      </c>
-      <c r="G51">
-        <v>179.066666666667</v>
-      </c>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C48" s="6"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C50" s="6"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B52" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E52" s="2">
-        <v>1</v>
-      </c>
-      <c r="F52" s="2">
-        <v>2</v>
-      </c>
-      <c r="G52">
-        <v>195</v>
-      </c>
-      <c r="H52" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B53" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E53" s="2">
-        <v>3</v>
-      </c>
-      <c r="F53" s="2">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>176</v>
-      </c>
-      <c r="H53" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" s="2">
-        <v>3</v>
-      </c>
-      <c r="F54" s="2">
-        <v>2</v>
-      </c>
-      <c r="G54">
-        <v>179.066666666667</v>
-      </c>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="H52" s="4"/>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C53" s="6"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55" s="2">
-        <v>1</v>
-      </c>
-      <c r="F55" s="2">
-        <v>2</v>
-      </c>
-      <c r="G55">
-        <v>195</v>
-      </c>
-      <c r="H55" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E56" s="2">
-        <v>3</v>
-      </c>
-      <c r="F56" s="2">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>176</v>
-      </c>
-      <c r="H56" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="2">
-        <v>3</v>
-      </c>
-      <c r="F57" s="2">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>176</v>
-      </c>
-      <c r="H57" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>15</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" s="2">
-        <v>3</v>
-      </c>
-      <c r="F58" s="2">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>176</v>
-      </c>
-      <c r="H58" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="2">
-        <v>3</v>
-      </c>
-      <c r="F59" s="2">
-        <v>2</v>
-      </c>
-      <c r="G59">
-        <v>179.066666666667</v>
-      </c>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="H55" s="4"/>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C56" s="6"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="H57" s="4"/>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C58" s="6"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="H58" s="4"/>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E60" s="1">
-        <v>2</v>
-      </c>
-      <c r="F60" s="2">
-        <v>2</v>
-      </c>
-      <c r="G60">
-        <v>182</v>
-      </c>
-      <c r="H60" s="4">
-        <v>969.73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>14</v>
-      </c>
-      <c r="B61" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" s="2">
-        <v>1</v>
-      </c>
-      <c r="F61" s="2">
-        <v>2</v>
-      </c>
-      <c r="G61">
-        <v>195</v>
-      </c>
-      <c r="H61" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E62" s="2">
-        <v>3</v>
-      </c>
-      <c r="F62" s="2">
-        <v>1</v>
-      </c>
-      <c r="G62">
-        <v>176</v>
-      </c>
-      <c r="H62" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E63" s="2">
-        <v>3</v>
-      </c>
-      <c r="F63" s="2">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <v>176</v>
-      </c>
-      <c r="H63" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>15</v>
-      </c>
-      <c r="B64" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E64" s="2">
-        <v>3</v>
-      </c>
-      <c r="F64" s="2">
-        <v>1</v>
-      </c>
-      <c r="G64">
-        <v>176</v>
-      </c>
-      <c r="H64" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" s="2">
-        <v>3</v>
-      </c>
-      <c r="F65" s="2">
-        <v>2</v>
-      </c>
-      <c r="G65">
-        <v>179.066666666667</v>
-      </c>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D60" s="6"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="2"/>
+      <c r="H60" s="4"/>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="H61" s="4"/>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C62" s="6"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="H62" s="4"/>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="H63" s="4"/>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C64" s="6"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="H64" s="4"/>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>14</v>
-      </c>
-      <c r="B66" t="s">
-        <v>2</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E66" s="2">
-        <v>1</v>
-      </c>
-      <c r="F66" s="2">
-        <v>2</v>
-      </c>
-      <c r="G66">
-        <v>195</v>
-      </c>
-      <c r="H66" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E67" s="2">
-        <v>3</v>
-      </c>
-      <c r="F67" s="2">
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <v>176</v>
-      </c>
-      <c r="H67" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>15</v>
-      </c>
-      <c r="B68" t="s">
-        <v>2</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E68" s="2">
-        <v>3</v>
-      </c>
-      <c r="F68" s="2">
-        <v>1</v>
-      </c>
-      <c r="G68">
-        <v>176</v>
-      </c>
-      <c r="H68" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" t="s">
-        <v>2</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E69" s="2">
-        <v>3</v>
-      </c>
-      <c r="F69" s="2">
-        <v>1</v>
-      </c>
-      <c r="G69">
-        <v>176</v>
-      </c>
-      <c r="H69" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="2">
-        <v>3</v>
-      </c>
-      <c r="F70" s="2">
-        <v>2</v>
-      </c>
-      <c r="G70">
-        <v>179.066666666667</v>
-      </c>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C67" s="6"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C69" s="6"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>14</v>
-      </c>
-      <c r="B71" t="s">
-        <v>2</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E71" s="2">
-        <v>1</v>
-      </c>
-      <c r="F71" s="2">
-        <v>2</v>
-      </c>
-      <c r="G71">
-        <v>195</v>
-      </c>
-      <c r="H71" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72" t="s">
-        <v>2</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E72" s="2">
-        <v>3</v>
-      </c>
-      <c r="F72" s="2">
-        <v>1</v>
-      </c>
-      <c r="G72">
-        <v>176</v>
-      </c>
-      <c r="H72" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E73" s="2">
-        <v>3</v>
-      </c>
-      <c r="F73" s="2">
-        <v>2</v>
-      </c>
-      <c r="G73">
-        <v>179.066666666667</v>
-      </c>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C71" s="5"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C72" s="6"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C73" s="5"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>15</v>
-      </c>
-      <c r="B74" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E74" s="2">
-        <v>3</v>
-      </c>
-      <c r="F74" s="2">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>176</v>
-      </c>
-      <c r="H74" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75" t="s">
-        <v>2</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E75" s="2">
-        <v>3</v>
-      </c>
-      <c r="F75" s="2">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>176</v>
-      </c>
-      <c r="H75" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" t="s">
-        <v>2</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E76" s="2">
-        <v>3</v>
-      </c>
-      <c r="F76" s="2">
-        <v>1</v>
-      </c>
-      <c r="G76">
-        <v>176</v>
-      </c>
-      <c r="H76" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>2</v>
-      </c>
-      <c r="C77" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="2">
-        <v>3</v>
-      </c>
-      <c r="F77" s="2">
-        <v>2</v>
-      </c>
-      <c r="G77">
-        <v>179.066666666667</v>
-      </c>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C74" s="6"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C76" s="6"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>14</v>
-      </c>
-      <c r="B78" t="s">
-        <v>2</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E78" s="2">
-        <v>1</v>
-      </c>
-      <c r="F78" s="2">
-        <v>2</v>
-      </c>
-      <c r="G78">
-        <v>195</v>
-      </c>
-      <c r="H78" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E79" s="2">
-        <v>3</v>
-      </c>
-      <c r="F79" s="2">
-        <v>1</v>
-      </c>
-      <c r="G79">
-        <v>176</v>
-      </c>
-      <c r="H79" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>2</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D80" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="2">
-        <v>3</v>
-      </c>
-      <c r="F80" s="2">
-        <v>2</v>
-      </c>
-      <c r="G80">
-        <v>179.066666666667</v>
-      </c>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C78" s="5"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C80" s="5"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>15</v>
-      </c>
-      <c r="B81" t="s">
-        <v>2</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E81" s="2">
-        <v>3</v>
-      </c>
-      <c r="F81" s="2">
-        <v>1</v>
-      </c>
-      <c r="G81">
-        <v>176</v>
-      </c>
-      <c r="H81" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
-        <v>2</v>
-      </c>
-      <c r="C82" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E82" s="2">
-        <v>3</v>
-      </c>
-      <c r="F82" s="2">
-        <v>2</v>
-      </c>
-      <c r="G82">
-        <v>179.066666666667</v>
-      </c>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C81" s="6"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="H81" s="4"/>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D82" s="6"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>14</v>
-      </c>
-      <c r="B83" t="s">
-        <v>2</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E83" s="2">
-        <v>1</v>
-      </c>
-      <c r="F83" s="2">
-        <v>2</v>
-      </c>
-      <c r="G83">
-        <v>195</v>
-      </c>
-      <c r="H83" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>15</v>
-      </c>
-      <c r="B84" t="s">
-        <v>2</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E84" s="2">
-        <v>3</v>
-      </c>
-      <c r="F84" s="2">
-        <v>1</v>
-      </c>
-      <c r="G84">
-        <v>176</v>
-      </c>
-      <c r="H84" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
-        <v>2</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D85" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85" s="2">
-        <v>3</v>
-      </c>
-      <c r="F85" s="2">
-        <v>2</v>
-      </c>
-      <c r="G85">
-        <v>179.066666666667</v>
-      </c>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C85" s="5"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>15</v>
-      </c>
-      <c r="B86" t="s">
-        <v>2</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E86" s="2">
-        <v>3</v>
-      </c>
-      <c r="F86" s="2">
-        <v>1</v>
-      </c>
-      <c r="G86">
-        <v>176</v>
-      </c>
-      <c r="H86" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>15</v>
-      </c>
-      <c r="B87" t="s">
-        <v>2</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E87" s="2">
-        <v>3</v>
-      </c>
-      <c r="F87" s="2">
-        <v>1</v>
-      </c>
-      <c r="G87">
-        <v>176</v>
-      </c>
-      <c r="H87" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
-        <v>2</v>
-      </c>
-      <c r="C88" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" s="2">
-        <v>3</v>
-      </c>
-      <c r="F88" s="2">
-        <v>2</v>
-      </c>
-      <c r="G88">
-        <v>179.066666666667</v>
-      </c>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C86" s="6"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="H86" s="4"/>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C87" s="6"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="H87" s="4"/>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>14</v>
-      </c>
-      <c r="B89" t="s">
-        <v>2</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E89" s="2">
-        <v>1</v>
-      </c>
-      <c r="F89" s="2">
-        <v>2</v>
-      </c>
-      <c r="G89">
-        <v>195</v>
-      </c>
-      <c r="H89" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>15</v>
-      </c>
-      <c r="B90" t="s">
-        <v>2</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E90" s="2">
-        <v>3</v>
-      </c>
-      <c r="F90" s="2">
-        <v>1</v>
-      </c>
-      <c r="G90">
-        <v>176</v>
-      </c>
-      <c r="H90" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B91" t="s">
-        <v>2</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D91" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" s="2">
-        <v>3</v>
-      </c>
-      <c r="F91" s="2">
-        <v>2</v>
-      </c>
-      <c r="G91">
-        <v>179.066666666667</v>
-      </c>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C89" s="5"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="H89" s="4"/>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="H90" s="4"/>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C91" s="5"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>15</v>
-      </c>
-      <c r="B92" t="s">
-        <v>2</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E92" s="2">
-        <v>3</v>
-      </c>
-      <c r="F92" s="2">
-        <v>1</v>
-      </c>
-      <c r="G92">
-        <v>176</v>
-      </c>
-      <c r="H92" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B93" t="s">
-        <v>2</v>
-      </c>
-      <c r="C93" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E93" s="2">
-        <v>3</v>
-      </c>
-      <c r="F93" s="2">
-        <v>2</v>
-      </c>
-      <c r="G93">
-        <v>179.066666666667</v>
-      </c>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C92" s="6"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D93" s="6"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>14</v>
-      </c>
-      <c r="B94" t="s">
-        <v>2</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E94" s="2">
-        <v>1</v>
-      </c>
-      <c r="F94" s="2">
-        <v>2</v>
-      </c>
-      <c r="G94">
-        <v>195</v>
-      </c>
-      <c r="H94" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>15</v>
-      </c>
-      <c r="B95" t="s">
-        <v>2</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E95" s="2">
-        <v>3</v>
-      </c>
-      <c r="F95" s="2">
-        <v>1</v>
-      </c>
-      <c r="G95">
-        <v>176</v>
-      </c>
-      <c r="H95" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
-        <v>2</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D96" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96" s="2">
-        <v>3</v>
-      </c>
-      <c r="F96" s="2">
-        <v>2</v>
-      </c>
-      <c r="G96">
-        <v>179.066666666667</v>
-      </c>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C96" s="5"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>15</v>
-      </c>
-      <c r="B97" t="s">
-        <v>2</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E97" s="2">
-        <v>3</v>
-      </c>
-      <c r="F97" s="2">
-        <v>1</v>
-      </c>
-      <c r="G97">
-        <v>176</v>
-      </c>
-      <c r="H97" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>15</v>
-      </c>
-      <c r="B98" t="s">
-        <v>2</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E98" s="2">
-        <v>3</v>
-      </c>
-      <c r="F98" s="2">
-        <v>1</v>
-      </c>
-      <c r="G98">
-        <v>176</v>
-      </c>
-      <c r="H98" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>15</v>
-      </c>
-      <c r="B99" t="s">
-        <v>2</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E99" s="2">
-        <v>3</v>
-      </c>
-      <c r="F99" s="2">
-        <v>1</v>
-      </c>
-      <c r="G99">
-        <v>176</v>
-      </c>
-      <c r="H99" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B100" t="s">
-        <v>2</v>
-      </c>
-      <c r="C100" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100" s="2">
-        <v>3</v>
-      </c>
-      <c r="F100" s="2">
-        <v>2</v>
-      </c>
-      <c r="G100">
-        <v>179.066666666667</v>
-      </c>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C97" s="6"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="H97" s="4"/>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C99" s="6"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>14</v>
-      </c>
-      <c r="B101" t="s">
-        <v>2</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E101" s="2">
-        <v>1</v>
-      </c>
-      <c r="F101" s="2">
-        <v>2</v>
-      </c>
-      <c r="G101">
-        <v>195</v>
-      </c>
-      <c r="H101" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>15</v>
-      </c>
-      <c r="B102" t="s">
-        <v>2</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E102" s="2">
-        <v>3</v>
-      </c>
-      <c r="F102" s="2">
-        <v>1</v>
-      </c>
-      <c r="G102">
-        <v>176</v>
-      </c>
-      <c r="H102" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B103" t="s">
-        <v>2</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E103" s="2">
-        <v>3</v>
-      </c>
-      <c r="F103" s="2">
-        <v>2</v>
-      </c>
-      <c r="G103">
-        <v>179.066666666667</v>
-      </c>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C101" s="5"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C102" s="6"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="H102" s="4"/>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C103" s="5"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C104" s="6"/>
       <c r="D104" s="5"/>
       <c r="E104" s="2"/>
       <c r="F104" s="1"/>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D105" s="5"/>
       <c r="E105" s="1"/>
       <c r="F105" s="2"/>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C106" s="5"/>
       <c r="D106" s="6"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C107" s="6"/>
       <c r="D107" s="5"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C108" s="5"/>
       <c r="D108" s="6"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C109" s="6"/>
       <c r="D109" s="5"/>
       <c r="E109" s="2"/>
       <c r="F109" s="1"/>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D110" s="5"/>
       <c r="E110" s="1"/>
       <c r="F110" s="2"/>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C111" s="5"/>
       <c r="D111" s="6"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C112" s="6"/>
       <c r="D112" s="5"/>
       <c r="E112" s="2"/>

--- a/venv/Lib/Excel/orsa.xlsx
+++ b/venv/Lib/Excel/orsa.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
   <si>
     <t xml:space="preserve">ADI SOYADI </t>
   </si>
@@ -570,7 +570,7 @@
   <dimension ref="A1:H1349"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -821,36 +821,134 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="H10" s="4"/>
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>182</v>
+      </c>
+      <c r="H10" s="4">
+        <v>969.73</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D11" s="6"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2"/>
-      <c r="H11" s="4"/>
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>195</v>
+      </c>
+      <c r="H11" s="4">
+        <v>800</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
-      <c r="H12" s="4"/>
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>176</v>
+      </c>
+      <c r="H12" s="4">
+        <v>507.58</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="H13" s="4"/>
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>176</v>
+      </c>
+      <c r="H13" s="4">
+        <v>507.58</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="H14" s="4"/>
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>176</v>
+      </c>
+      <c r="H14" s="4">
+        <v>507.58</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15" s="6"/>

--- a/venv/Lib/Excel/orsa.xlsx
+++ b/venv/Lib/Excel/orsa.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="27">
   <si>
     <t xml:space="preserve">ADI SOYADI </t>
   </si>
@@ -570,7 +570,7 @@
   <dimension ref="A1:H1349"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A15" sqref="A15:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>176</v>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>176</v>
@@ -951,118 +951,312 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="H15" s="4"/>
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>182</v>
+      </c>
+      <c r="H15" s="4">
+        <v>969.73</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="6"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="6"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>195</v>
+      </c>
+      <c r="H16" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>176</v>
+      </c>
+      <c r="H17" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>176</v>
+      </c>
+      <c r="H18" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>176</v>
+      </c>
+      <c r="H19" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>182</v>
+      </c>
+      <c r="H20" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>195</v>
+      </c>
+      <c r="H21" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>176</v>
+      </c>
+      <c r="H22" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>176</v>
+      </c>
+      <c r="H23" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>176</v>
+      </c>
+      <c r="H24" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C25" s="6"/>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C27" s="6"/>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C31" s="5"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C32" s="6"/>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -9123,5 +9317,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
--- a/venv/Lib/Excel/orsa.xlsx
+++ b/venv/Lib/Excel/orsa.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
   <si>
     <t xml:space="preserve">ADI SOYADI </t>
   </si>
@@ -103,9 +103,6 @@
     <t>GİRESUN</t>
   </si>
   <si>
-    <t>HAKKARİ</t>
-  </si>
-  <si>
     <t>DİYARBAKIR</t>
   </si>
   <si>
@@ -113,6 +110,12 @@
   </si>
   <si>
     <t>İZMİR</t>
+  </si>
+  <si>
+    <t>ÇANAKKALE</t>
+  </si>
+  <si>
+    <t>ORDU</t>
   </si>
 </sst>
 </file>
@@ -570,7 +573,7 @@
   <dimension ref="A1:H1349"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:H24"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,7 +704,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -724,7 +727,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>22</v>
@@ -750,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -776,15 +779,15 @@
         <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
       </c>
       <c r="E8" s="2">
         <v>3</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>1</v>
       </c>
       <c r="G8">
@@ -796,28 +799,28 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
+      <c r="D9" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
         <v>3</v>
       </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
       <c r="G9">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="H9" s="4">
-        <v>507.58</v>
+        <v>800</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -831,7 +834,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1">
         <v>3</v>
@@ -848,415 +851,201 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>22</v>
+      <c r="D11" t="s">
+        <v>6</v>
       </c>
       <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="2">
-        <v>3</v>
-      </c>
       <c r="G11">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="H11" s="4">
-        <v>800</v>
+        <v>507.58</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>3</v>
       </c>
       <c r="F12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H12" s="4">
-        <v>507.58</v>
+        <v>969.73</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
         <v>3</v>
       </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
       <c r="G13">
-        <v>176</v>
-      </c>
-      <c r="H13" s="4">
-        <v>507.58</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="2">
-        <v>3</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>176</v>
-      </c>
-      <c r="H14" s="4">
-        <v>507.58</v>
-      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="1">
-        <v>3</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>182</v>
-      </c>
-      <c r="H15" s="4">
-        <v>969.73</v>
-      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>3</v>
-      </c>
-      <c r="G16">
-        <v>195</v>
-      </c>
-      <c r="H16" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="2">
-        <v>3</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>176</v>
-      </c>
-      <c r="H17" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="2">
-        <v>3</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>176</v>
-      </c>
-      <c r="H18" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="2">
-        <v>3</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>176</v>
-      </c>
-      <c r="H19" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="1">
-        <v>3</v>
-      </c>
-      <c r="F20" s="2">
-        <v>2</v>
-      </c>
-      <c r="G20">
-        <v>182</v>
-      </c>
-      <c r="H20" s="4">
-        <v>969.73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2">
-        <v>3</v>
-      </c>
-      <c r="G21">
-        <v>195</v>
-      </c>
-      <c r="H21" s="4">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="2">
-        <v>3</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>176</v>
-      </c>
-      <c r="H22" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="2">
-        <v>3</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>176</v>
-      </c>
-      <c r="H23" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="2">
-        <v>3</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>176</v>
-      </c>
-      <c r="H24" s="4">
-        <v>507.58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="6"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="6"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="6"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="6"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="6"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="6"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C25" s="6"/>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27" s="6"/>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C29" s="5"/>
       <c r="D29" s="6"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C31" s="5"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C32" s="6"/>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>

--- a/venv/Lib/Excel/orsa.xlsx
+++ b/venv/Lib/Excel/orsa.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="28">
   <si>
     <t xml:space="preserve">ADI SOYADI </t>
   </si>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1349"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85:H164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -923,1085 +923,3922 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="6"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="H14" s="4"/>
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>176</v>
+      </c>
+      <c r="H14" s="4">
+        <v>507.58</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="6"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="H15" s="4"/>
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>182</v>
+      </c>
+      <c r="H15" s="4">
+        <v>969.73</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="6"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="6"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="6"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="6"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="6"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="6"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>195</v>
+      </c>
+      <c r="H16" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>176</v>
+      </c>
+      <c r="H17" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>176</v>
+      </c>
+      <c r="H18" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>195</v>
+      </c>
+      <c r="H19" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>182</v>
+      </c>
+      <c r="H20" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>176</v>
+      </c>
+      <c r="H21" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>182</v>
+      </c>
+      <c r="H22" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>160</v>
+      </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="6"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="6"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C31" s="5"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C32" s="6"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D33" s="6"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>176</v>
+      </c>
+      <c r="H24" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>182</v>
+      </c>
+      <c r="H25" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>195</v>
+      </c>
+      <c r="H26" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="2">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>176</v>
+      </c>
+      <c r="H27" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>176</v>
+      </c>
+      <c r="H28" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>195</v>
+      </c>
+      <c r="H29" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>182</v>
+      </c>
+      <c r="H30" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>176</v>
+      </c>
+      <c r="H31" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>182</v>
+      </c>
+      <c r="H32" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>160</v>
+      </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C36" s="5"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C37" s="6"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C38" s="6"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C42" s="5"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C43" s="6"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="2">
+        <v>3</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>176</v>
+      </c>
+      <c r="H34" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="1">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>182</v>
+      </c>
+      <c r="H35" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>195</v>
+      </c>
+      <c r="H36" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>176</v>
+      </c>
+      <c r="H37" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="2">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>176</v>
+      </c>
+      <c r="H38" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>195</v>
+      </c>
+      <c r="H39" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3</v>
+      </c>
+      <c r="F40" s="2">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>182</v>
+      </c>
+      <c r="H40" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="2">
+        <v>3</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>176</v>
+      </c>
+      <c r="H41" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="1">
+        <v>3</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>182</v>
+      </c>
+      <c r="H42" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>160</v>
+      </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D44" s="6"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C47" s="5"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="H47" s="4"/>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C48" s="6"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C50" s="6"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C53" s="6"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="2">
+        <v>3</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>176</v>
+      </c>
+      <c r="H44" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="1">
+        <v>3</v>
+      </c>
+      <c r="F45" s="2">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>182</v>
+      </c>
+      <c r="H45" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>195</v>
+      </c>
+      <c r="H46" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="2">
+        <v>3</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>176</v>
+      </c>
+      <c r="H47" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="2">
+        <v>3</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>176</v>
+      </c>
+      <c r="H48" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>195</v>
+      </c>
+      <c r="H49" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="1">
+        <v>3</v>
+      </c>
+      <c r="F50" s="2">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>182</v>
+      </c>
+      <c r="H50" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="2">
+        <v>3</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>176</v>
+      </c>
+      <c r="H51" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="1">
+        <v>3</v>
+      </c>
+      <c r="F52" s="2">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>182</v>
+      </c>
+      <c r="H52" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>160</v>
+      </c>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C56" s="6"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C58" s="6"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D60" s="6"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="2"/>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C62" s="6"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="2">
+        <v>3</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>176</v>
+      </c>
+      <c r="H54" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="1">
+        <v>3</v>
+      </c>
+      <c r="F55" s="2">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>182</v>
+      </c>
+      <c r="H55" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>195</v>
+      </c>
+      <c r="H56" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="2">
+        <v>3</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>176</v>
+      </c>
+      <c r="H57" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="2">
+        <v>3</v>
+      </c>
+      <c r="F58" s="2">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>176</v>
+      </c>
+      <c r="H58" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>195</v>
+      </c>
+      <c r="H59" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="1">
+        <v>3</v>
+      </c>
+      <c r="F60" s="2">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>182</v>
+      </c>
+      <c r="H60" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="2">
+        <v>3</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>176</v>
+      </c>
+      <c r="H61" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="1">
+        <v>3</v>
+      </c>
+      <c r="F62" s="2">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>182</v>
+      </c>
+      <c r="H62" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>160</v>
+      </c>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C64" s="6"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C67" s="6"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C69" s="6"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="H69" s="4"/>
-    </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C71" s="5"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C72" s="6"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C73" s="5"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="2">
+        <v>3</v>
+      </c>
+      <c r="F64" s="2">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>176</v>
+      </c>
+      <c r="H64" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="1">
+        <v>3</v>
+      </c>
+      <c r="F65" s="2">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>182</v>
+      </c>
+      <c r="H65" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1</v>
+      </c>
+      <c r="F66" s="2">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>195</v>
+      </c>
+      <c r="H66" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="2">
+        <v>3</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>176</v>
+      </c>
+      <c r="H67" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="2">
+        <v>3</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>176</v>
+      </c>
+      <c r="H68" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1</v>
+      </c>
+      <c r="F69" s="2">
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <v>195</v>
+      </c>
+      <c r="H69" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E70" s="1">
+        <v>3</v>
+      </c>
+      <c r="F70" s="2">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>182</v>
+      </c>
+      <c r="H70" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="2">
+        <v>3</v>
+      </c>
+      <c r="F71" s="2">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>176</v>
+      </c>
+      <c r="H71" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="1">
+        <v>3</v>
+      </c>
+      <c r="F72" s="2">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>182</v>
+      </c>
+      <c r="H72" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>160</v>
+      </c>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C74" s="6"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="H74" s="4"/>
-    </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="H75" s="4"/>
-    </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C76" s="6"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="H76" s="4"/>
-    </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="H77" s="4"/>
-    </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C78" s="5"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="H78" s="4"/>
-    </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="H79" s="4"/>
-    </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C80" s="5"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="H80" s="4"/>
-    </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C81" s="6"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="H81" s="4"/>
-    </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D82" s="6"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="H82" s="4"/>
-    </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="2">
+        <v>3</v>
+      </c>
+      <c r="F74" s="2">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>176</v>
+      </c>
+      <c r="H74" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E75" s="1">
+        <v>3</v>
+      </c>
+      <c r="F75" s="2">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>182</v>
+      </c>
+      <c r="H75" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
+      <c r="F76" s="2">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>195</v>
+      </c>
+      <c r="H76" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="2">
+        <v>3</v>
+      </c>
+      <c r="F77" s="2">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>176</v>
+      </c>
+      <c r="H77" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="2">
+        <v>3</v>
+      </c>
+      <c r="F78" s="2">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>176</v>
+      </c>
+      <c r="H78" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1</v>
+      </c>
+      <c r="F79" s="2">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>195</v>
+      </c>
+      <c r="H79" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>13</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" s="1">
+        <v>3</v>
+      </c>
+      <c r="F80" s="2">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>182</v>
+      </c>
+      <c r="H80" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="2">
+        <v>3</v>
+      </c>
+      <c r="F81" s="2">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>176</v>
+      </c>
+      <c r="H81" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" s="1">
+        <v>3</v>
+      </c>
+      <c r="F82" s="2">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>182</v>
+      </c>
+      <c r="H82" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E83" s="2">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>160</v>
+      </c>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="H84" s="4"/>
-    </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C85" s="5"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="H85" s="4"/>
-    </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C86" s="6"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="H86" s="4"/>
-    </row>
-    <row r="87" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C87" s="6"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="H87" s="4"/>
-    </row>
-    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="H88" s="4"/>
-    </row>
-    <row r="89" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C89" s="5"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="H89" s="4"/>
-    </row>
-    <row r="90" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="H90" s="4"/>
-    </row>
-    <row r="91" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C91" s="5"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="H91" s="4"/>
-    </row>
-    <row r="92" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C92" s="6"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="H92" s="4"/>
-    </row>
-    <row r="93" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D93" s="6"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="2">
+        <v>3</v>
+      </c>
+      <c r="F84" s="2">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>176</v>
+      </c>
+      <c r="H84" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" s="1">
+        <v>3</v>
+      </c>
+      <c r="F85" s="2">
+        <v>2</v>
+      </c>
+      <c r="G85">
+        <v>182</v>
+      </c>
+      <c r="H85" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1</v>
+      </c>
+      <c r="F86" s="2">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>195</v>
+      </c>
+      <c r="H86" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>15</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" s="2">
+        <v>3</v>
+      </c>
+      <c r="F87" s="2">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>176</v>
+      </c>
+      <c r="H87" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="2">
+        <v>3</v>
+      </c>
+      <c r="F88" s="2">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>176</v>
+      </c>
+      <c r="H88" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1</v>
+      </c>
+      <c r="F89" s="2">
+        <v>3</v>
+      </c>
+      <c r="G89">
+        <v>195</v>
+      </c>
+      <c r="H89" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" s="1">
+        <v>3</v>
+      </c>
+      <c r="F90" s="2">
+        <v>2</v>
+      </c>
+      <c r="G90">
+        <v>182</v>
+      </c>
+      <c r="H90" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91" s="2">
+        <v>3</v>
+      </c>
+      <c r="F91" s="2">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>176</v>
+      </c>
+      <c r="H91" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" s="1">
+        <v>3</v>
+      </c>
+      <c r="F92" s="2">
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <v>182</v>
+      </c>
+      <c r="H92" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E93" s="2">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1">
+        <v>3</v>
+      </c>
+      <c r="G93">
+        <v>160</v>
+      </c>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="H94" s="4"/>
-    </row>
-    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="H95" s="4"/>
-    </row>
-    <row r="96" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C96" s="5"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="H96" s="4"/>
-    </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C97" s="6"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="H97" s="4"/>
-    </row>
-    <row r="98" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="H98" s="4"/>
-    </row>
-    <row r="99" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C99" s="6"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="H99" s="4"/>
-    </row>
-    <row r="100" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="H100" s="4"/>
-    </row>
-    <row r="101" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C101" s="5"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="H101" s="4"/>
-    </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C102" s="6"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="H102" s="4"/>
-    </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C103" s="5"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="2">
+        <v>3</v>
+      </c>
+      <c r="F94" s="2">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>176</v>
+      </c>
+      <c r="H94" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" s="1">
+        <v>3</v>
+      </c>
+      <c r="F95" s="2">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>182</v>
+      </c>
+      <c r="H95" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1</v>
+      </c>
+      <c r="F96" s="2">
+        <v>3</v>
+      </c>
+      <c r="G96">
+        <v>195</v>
+      </c>
+      <c r="H96" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="2">
+        <v>3</v>
+      </c>
+      <c r="F97" s="2">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>176</v>
+      </c>
+      <c r="H97" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>15</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="2">
+        <v>3</v>
+      </c>
+      <c r="F98" s="2">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>176</v>
+      </c>
+      <c r="H98" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E99" s="2">
+        <v>1</v>
+      </c>
+      <c r="F99" s="2">
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <v>195</v>
+      </c>
+      <c r="H99" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" s="1">
+        <v>3</v>
+      </c>
+      <c r="F100" s="2">
+        <v>2</v>
+      </c>
+      <c r="G100">
+        <v>182</v>
+      </c>
+      <c r="H100" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>15</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="2">
+        <v>3</v>
+      </c>
+      <c r="F101" s="2">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>176</v>
+      </c>
+      <c r="H101" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" s="1">
+        <v>3</v>
+      </c>
+      <c r="F102" s="2">
+        <v>2</v>
+      </c>
+      <c r="G102">
+        <v>182</v>
+      </c>
+      <c r="H102" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E103" s="2">
+        <v>1</v>
+      </c>
+      <c r="F103" s="1">
+        <v>3</v>
+      </c>
+      <c r="G103">
+        <v>160</v>
+      </c>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C104" s="6"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="1"/>
-      <c r="H104" s="4"/>
-    </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D105" s="5"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="2"/>
-      <c r="H105" s="4"/>
-    </row>
-    <row r="106" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C106" s="5"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="H106" s="4"/>
-    </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C107" s="6"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="H107" s="4"/>
-    </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C108" s="5"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="H108" s="4"/>
-    </row>
-    <row r="109" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C109" s="6"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="1"/>
-      <c r="H109" s="4"/>
-    </row>
-    <row r="110" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D110" s="5"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="2"/>
-      <c r="H110" s="4"/>
-    </row>
-    <row r="111" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C111" s="5"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="H111" s="4"/>
-    </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C112" s="6"/>
-      <c r="D112" s="5"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="H112" s="4"/>
-    </row>
-    <row r="113" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C113" s="5"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" s="2">
+        <v>3</v>
+      </c>
+      <c r="F104" s="2">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>176</v>
+      </c>
+      <c r="H104" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" s="1">
+        <v>3</v>
+      </c>
+      <c r="F105" s="2">
+        <v>2</v>
+      </c>
+      <c r="G105">
+        <v>182</v>
+      </c>
+      <c r="H105" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E106" s="2">
+        <v>1</v>
+      </c>
+      <c r="F106" s="2">
+        <v>3</v>
+      </c>
+      <c r="G106">
+        <v>195</v>
+      </c>
+      <c r="H106" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="2">
+        <v>3</v>
+      </c>
+      <c r="F107" s="2">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>176</v>
+      </c>
+      <c r="H107" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>15</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D108" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="2">
+        <v>3</v>
+      </c>
+      <c r="F108" s="2">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>176</v>
+      </c>
+      <c r="H108" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" s="2">
+        <v>1</v>
+      </c>
+      <c r="F109" s="2">
+        <v>3</v>
+      </c>
+      <c r="G109">
+        <v>195</v>
+      </c>
+      <c r="H109" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" s="1">
+        <v>3</v>
+      </c>
+      <c r="F110" s="2">
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <v>182</v>
+      </c>
+      <c r="H110" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>15</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D111" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="2">
+        <v>3</v>
+      </c>
+      <c r="F111" s="2">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>176</v>
+      </c>
+      <c r="H111" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>13</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E112" s="1">
+        <v>3</v>
+      </c>
+      <c r="F112" s="2">
+        <v>2</v>
+      </c>
+      <c r="G112">
+        <v>182</v>
+      </c>
+      <c r="H112" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E113" s="2">
+        <v>1</v>
+      </c>
+      <c r="F113" s="1">
+        <v>3</v>
+      </c>
+      <c r="G113">
+        <v>160</v>
+      </c>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C114" s="6"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="1"/>
-      <c r="H114" s="4"/>
-    </row>
-    <row r="115" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D115" s="5"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="2"/>
-      <c r="H115" s="4"/>
-    </row>
-    <row r="116" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C116" s="5"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="H116" s="4"/>
-    </row>
-    <row r="117" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C117" s="6"/>
-      <c r="D117" s="5"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="H117" s="4"/>
-    </row>
-    <row r="118" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C118" s="5"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="H118" s="4"/>
-    </row>
-    <row r="119" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C119" s="6"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="1"/>
-      <c r="H119" s="4"/>
-    </row>
-    <row r="120" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D120" s="5"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="2"/>
-      <c r="H120" s="4"/>
-    </row>
-    <row r="121" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C121" s="5"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="H121" s="4"/>
-    </row>
-    <row r="122" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C122" s="6"/>
-      <c r="D122" s="5"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="H122" s="4"/>
-    </row>
-    <row r="123" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C123" s="5"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="2">
+        <v>3</v>
+      </c>
+      <c r="F114" s="2">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>176</v>
+      </c>
+      <c r="H114" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>13</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E115" s="1">
+        <v>3</v>
+      </c>
+      <c r="F115" s="2">
+        <v>2</v>
+      </c>
+      <c r="G115">
+        <v>182</v>
+      </c>
+      <c r="H115" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E116" s="2">
+        <v>1</v>
+      </c>
+      <c r="F116" s="2">
+        <v>3</v>
+      </c>
+      <c r="G116">
+        <v>195</v>
+      </c>
+      <c r="H116" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>15</v>
+      </c>
+      <c r="B117" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="2">
+        <v>3</v>
+      </c>
+      <c r="F117" s="2">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>176</v>
+      </c>
+      <c r="H117" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="2">
+        <v>3</v>
+      </c>
+      <c r="F118" s="2">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>176</v>
+      </c>
+      <c r="H118" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E119" s="2">
+        <v>1</v>
+      </c>
+      <c r="F119" s="2">
+        <v>3</v>
+      </c>
+      <c r="G119">
+        <v>195</v>
+      </c>
+      <c r="H119" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E120" s="1">
+        <v>3</v>
+      </c>
+      <c r="F120" s="2">
+        <v>2</v>
+      </c>
+      <c r="G120">
+        <v>182</v>
+      </c>
+      <c r="H120" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>15</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="2">
+        <v>3</v>
+      </c>
+      <c r="F121" s="2">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>176</v>
+      </c>
+      <c r="H121" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E122" s="1">
+        <v>3</v>
+      </c>
+      <c r="F122" s="2">
+        <v>2</v>
+      </c>
+      <c r="G122">
+        <v>182</v>
+      </c>
+      <c r="H122" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E123" s="2">
+        <v>1</v>
+      </c>
+      <c r="F123" s="1">
+        <v>3</v>
+      </c>
+      <c r="G123">
+        <v>160</v>
+      </c>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C124" s="6"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="1"/>
-      <c r="H124" s="4"/>
-    </row>
-    <row r="125" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D125" s="5"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="2"/>
-      <c r="H125" s="4"/>
-    </row>
-    <row r="126" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C126" s="5"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="H126" s="4"/>
-    </row>
-    <row r="127" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C127" s="6"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="H127" s="4"/>
-    </row>
-    <row r="128" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C128" s="5"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="H128" s="4"/>
-    </row>
-    <row r="129" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C129" s="6"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="1"/>
-      <c r="H129" s="4"/>
-    </row>
-    <row r="130" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D130" s="5"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="2"/>
-      <c r="H130" s="4"/>
-    </row>
-    <row r="131" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C131" s="5"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="H131" s="4"/>
-    </row>
-    <row r="132" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C132" s="6"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="H132" s="4"/>
-    </row>
-    <row r="133" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C133" s="5"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D124" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="2">
+        <v>3</v>
+      </c>
+      <c r="F124" s="2">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>176</v>
+      </c>
+      <c r="H124" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E125" s="1">
+        <v>3</v>
+      </c>
+      <c r="F125" s="2">
+        <v>2</v>
+      </c>
+      <c r="G125">
+        <v>182</v>
+      </c>
+      <c r="H125" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E126" s="2">
+        <v>1</v>
+      </c>
+      <c r="F126" s="2">
+        <v>3</v>
+      </c>
+      <c r="G126">
+        <v>195</v>
+      </c>
+      <c r="H126" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>15</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D127" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="2">
+        <v>3</v>
+      </c>
+      <c r="F127" s="2">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>176</v>
+      </c>
+      <c r="H127" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D128" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" s="2">
+        <v>3</v>
+      </c>
+      <c r="F128" s="2">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>176</v>
+      </c>
+      <c r="H128" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129" s="2">
+        <v>1</v>
+      </c>
+      <c r="F129" s="2">
+        <v>3</v>
+      </c>
+      <c r="G129">
+        <v>195</v>
+      </c>
+      <c r="H129" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" s="1">
+        <v>3</v>
+      </c>
+      <c r="F130" s="2">
+        <v>2</v>
+      </c>
+      <c r="G130">
+        <v>182</v>
+      </c>
+      <c r="H130" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D131" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="2">
+        <v>3</v>
+      </c>
+      <c r="F131" s="2">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>176</v>
+      </c>
+      <c r="H131" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E132" s="1">
+        <v>3</v>
+      </c>
+      <c r="F132" s="2">
+        <v>2</v>
+      </c>
+      <c r="G132">
+        <v>182</v>
+      </c>
+      <c r="H132" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E133" s="2">
+        <v>1</v>
+      </c>
+      <c r="F133" s="1">
+        <v>3</v>
+      </c>
+      <c r="G133">
+        <v>160</v>
+      </c>
       <c r="H133" s="4"/>
     </row>
-    <row r="134" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C134" s="6"/>
-      <c r="D134" s="5"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="1"/>
-      <c r="H134" s="4"/>
-    </row>
-    <row r="135" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D135" s="5"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="2"/>
-      <c r="H135" s="4"/>
-    </row>
-    <row r="136" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C136" s="5"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="H136" s="4"/>
-    </row>
-    <row r="137" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C137" s="6"/>
-      <c r="D137" s="5"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-      <c r="H137" s="4"/>
-    </row>
-    <row r="138" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C138" s="5"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-      <c r="H138" s="4"/>
-    </row>
-    <row r="139" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C139" s="6"/>
-      <c r="D139" s="5"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="1"/>
-      <c r="H139" s="4"/>
-    </row>
-    <row r="140" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D140" s="5"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="2"/>
-      <c r="H140" s="4"/>
-    </row>
-    <row r="141" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C141" s="5"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="H141" s="4"/>
-    </row>
-    <row r="142" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C142" s="6"/>
-      <c r="D142" s="5"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="H142" s="4"/>
-    </row>
-    <row r="143" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C143" s="5"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>15</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D134" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134" s="2">
+        <v>3</v>
+      </c>
+      <c r="F134" s="2">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>176</v>
+      </c>
+      <c r="H134" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E135" s="1">
+        <v>3</v>
+      </c>
+      <c r="F135" s="2">
+        <v>2</v>
+      </c>
+      <c r="G135">
+        <v>182</v>
+      </c>
+      <c r="H135" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E136" s="2">
+        <v>1</v>
+      </c>
+      <c r="F136" s="2">
+        <v>3</v>
+      </c>
+      <c r="G136">
+        <v>195</v>
+      </c>
+      <c r="H136" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D137" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="2">
+        <v>3</v>
+      </c>
+      <c r="F137" s="2">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>176</v>
+      </c>
+      <c r="H137" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D138" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" s="2">
+        <v>3</v>
+      </c>
+      <c r="F138" s="2">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>176</v>
+      </c>
+      <c r="H138" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E139" s="2">
+        <v>1</v>
+      </c>
+      <c r="F139" s="2">
+        <v>3</v>
+      </c>
+      <c r="G139">
+        <v>195</v>
+      </c>
+      <c r="H139" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E140" s="1">
+        <v>3</v>
+      </c>
+      <c r="F140" s="2">
+        <v>2</v>
+      </c>
+      <c r="G140">
+        <v>182</v>
+      </c>
+      <c r="H140" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>15</v>
+      </c>
+      <c r="B141" t="s">
+        <v>2</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D141" t="s">
+        <v>6</v>
+      </c>
+      <c r="E141" s="2">
+        <v>3</v>
+      </c>
+      <c r="F141" s="2">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>176</v>
+      </c>
+      <c r="H141" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" t="s">
+        <v>2</v>
+      </c>
+      <c r="C142" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E142" s="1">
+        <v>3</v>
+      </c>
+      <c r="F142" s="2">
+        <v>2</v>
+      </c>
+      <c r="G142">
+        <v>182</v>
+      </c>
+      <c r="H142" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E143" s="2">
+        <v>1</v>
+      </c>
+      <c r="F143" s="1">
+        <v>3</v>
+      </c>
+      <c r="G143">
+        <v>160</v>
+      </c>
       <c r="H143" s="4"/>
     </row>
-    <row r="144" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C144" s="6"/>
-      <c r="D144" s="5"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="1"/>
-      <c r="H144" s="4"/>
-    </row>
-    <row r="145" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D145" s="5"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="2"/>
-      <c r="H145" s="4"/>
-    </row>
-    <row r="146" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C146" s="5"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="H146" s="4"/>
-    </row>
-    <row r="147" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C147" s="6"/>
-      <c r="D147" s="5"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="H147" s="4"/>
-    </row>
-    <row r="148" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C148" s="5"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="H148" s="4"/>
-    </row>
-    <row r="149" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C149" s="6"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="1"/>
-      <c r="H149" s="4"/>
-    </row>
-    <row r="150" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D150" s="5"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="2"/>
-      <c r="H150" s="4"/>
-    </row>
-    <row r="151" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C151" s="5"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-      <c r="H151" s="4"/>
-    </row>
-    <row r="152" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C152" s="6"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="H152" s="4"/>
-    </row>
-    <row r="153" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C153" s="5"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144" t="s">
+        <v>2</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" s="2">
+        <v>3</v>
+      </c>
+      <c r="F144" s="2">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>176</v>
+      </c>
+      <c r="H144" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>13</v>
+      </c>
+      <c r="B145" t="s">
+        <v>2</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E145" s="1">
+        <v>3</v>
+      </c>
+      <c r="F145" s="2">
+        <v>2</v>
+      </c>
+      <c r="G145">
+        <v>182</v>
+      </c>
+      <c r="H145" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>14</v>
+      </c>
+      <c r="B146" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E146" s="2">
+        <v>1</v>
+      </c>
+      <c r="F146" s="2">
+        <v>3</v>
+      </c>
+      <c r="G146">
+        <v>195</v>
+      </c>
+      <c r="H146" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>15</v>
+      </c>
+      <c r="B147" t="s">
+        <v>2</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D147" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147" s="2">
+        <v>3</v>
+      </c>
+      <c r="F147" s="2">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>176</v>
+      </c>
+      <c r="H147" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>15</v>
+      </c>
+      <c r="B148" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D148" t="s">
+        <v>6</v>
+      </c>
+      <c r="E148" s="2">
+        <v>3</v>
+      </c>
+      <c r="F148" s="2">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>176</v>
+      </c>
+      <c r="H148" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>14</v>
+      </c>
+      <c r="B149" t="s">
+        <v>2</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E149" s="2">
+        <v>1</v>
+      </c>
+      <c r="F149" s="2">
+        <v>3</v>
+      </c>
+      <c r="G149">
+        <v>195</v>
+      </c>
+      <c r="H149" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2</v>
+      </c>
+      <c r="C150" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E150" s="1">
+        <v>3</v>
+      </c>
+      <c r="F150" s="2">
+        <v>2</v>
+      </c>
+      <c r="G150">
+        <v>182</v>
+      </c>
+      <c r="H150" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>15</v>
+      </c>
+      <c r="B151" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D151" t="s">
+        <v>6</v>
+      </c>
+      <c r="E151" s="2">
+        <v>3</v>
+      </c>
+      <c r="F151" s="2">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>176</v>
+      </c>
+      <c r="H151" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E152" s="1">
+        <v>3</v>
+      </c>
+      <c r="F152" s="2">
+        <v>2</v>
+      </c>
+      <c r="G152">
+        <v>182</v>
+      </c>
+      <c r="H152" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>2</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E153" s="2">
+        <v>1</v>
+      </c>
+      <c r="F153" s="1">
+        <v>3</v>
+      </c>
+      <c r="G153">
+        <v>160</v>
+      </c>
       <c r="H153" s="4"/>
     </row>
-    <row r="154" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C154" s="6"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="1"/>
-      <c r="H154" s="4"/>
-    </row>
-    <row r="155" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D155" s="5"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="2"/>
-      <c r="H155" s="4"/>
-    </row>
-    <row r="156" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C156" s="5"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="H156" s="4"/>
-    </row>
-    <row r="157" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C157" s="6"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="H157" s="4"/>
-    </row>
-    <row r="158" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C158" s="5"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="H158" s="4"/>
-    </row>
-    <row r="159" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C159" s="6"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="1"/>
-      <c r="H159" s="4"/>
-    </row>
-    <row r="160" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="D160" s="5"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="2"/>
-      <c r="H160" s="4"/>
-    </row>
-    <row r="161" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C161" s="5"/>
-      <c r="D161" s="6"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-      <c r="H161" s="4"/>
-    </row>
-    <row r="162" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C162" s="6"/>
-      <c r="D162" s="5"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="H162" s="4"/>
-    </row>
-    <row r="163" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C163" s="5"/>
-      <c r="D163" s="6"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>15</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D154" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154" s="2">
+        <v>3</v>
+      </c>
+      <c r="F154" s="2">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>176</v>
+      </c>
+      <c r="H154" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155" t="s">
+        <v>2</v>
+      </c>
+      <c r="C155" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E155" s="1">
+        <v>3</v>
+      </c>
+      <c r="F155" s="2">
+        <v>2</v>
+      </c>
+      <c r="G155">
+        <v>182</v>
+      </c>
+      <c r="H155" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>14</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E156" s="2">
+        <v>1</v>
+      </c>
+      <c r="F156" s="2">
+        <v>3</v>
+      </c>
+      <c r="G156">
+        <v>195</v>
+      </c>
+      <c r="H156" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>15</v>
+      </c>
+      <c r="B157" t="s">
+        <v>2</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D157" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157" s="2">
+        <v>3</v>
+      </c>
+      <c r="F157" s="2">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>176</v>
+      </c>
+      <c r="H157" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>15</v>
+      </c>
+      <c r="B158" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D158" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158" s="2">
+        <v>3</v>
+      </c>
+      <c r="F158" s="2">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>176</v>
+      </c>
+      <c r="H158" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>14</v>
+      </c>
+      <c r="B159" t="s">
+        <v>2</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E159" s="2">
+        <v>1</v>
+      </c>
+      <c r="F159" s="2">
+        <v>3</v>
+      </c>
+      <c r="G159">
+        <v>195</v>
+      </c>
+      <c r="H159" s="4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" t="s">
+        <v>2</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E160" s="1">
+        <v>3</v>
+      </c>
+      <c r="F160" s="2">
+        <v>2</v>
+      </c>
+      <c r="G160">
+        <v>182</v>
+      </c>
+      <c r="H160" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>15</v>
+      </c>
+      <c r="B161" t="s">
+        <v>2</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D161" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161" s="2">
+        <v>3</v>
+      </c>
+      <c r="F161" s="2">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>176</v>
+      </c>
+      <c r="H161" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162" t="s">
+        <v>2</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E162" s="1">
+        <v>3</v>
+      </c>
+      <c r="F162" s="2">
+        <v>2</v>
+      </c>
+      <c r="G162">
+        <v>182</v>
+      </c>
+      <c r="H162" s="4">
+        <v>969.73</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E163" s="2">
+        <v>1</v>
+      </c>
+      <c r="F163" s="1">
+        <v>3</v>
+      </c>
+      <c r="G163">
+        <v>160</v>
+      </c>
       <c r="H163" s="4"/>
     </row>
-    <row r="164" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C164" s="6"/>
-      <c r="D164" s="5"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="1"/>
-      <c r="H164" s="4"/>
-    </row>
-    <row r="165" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>15</v>
+      </c>
+      <c r="B164" t="s">
+        <v>2</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D164" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164" s="2">
+        <v>3</v>
+      </c>
+      <c r="F164" s="2">
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <v>176</v>
+      </c>
+      <c r="H164" s="4">
+        <v>507.58</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C165" s="6"/>
       <c r="D165" s="5"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
     </row>
-    <row r="166" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C166" s="5"/>
       <c r="D166" s="6"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
     </row>
-    <row r="167" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C167" s="6"/>
       <c r="D167" s="5"/>
       <c r="E167" s="2"/>
       <c r="F167" s="1"/>
     </row>
-    <row r="168" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C168" s="5"/>
       <c r="D168" s="6"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
     </row>
-    <row r="169" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C169" s="6"/>
       <c r="D169" s="5"/>
       <c r="E169" s="1"/>
       <c r="F169" s="2"/>
     </row>
-    <row r="170" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C170" s="5"/>
       <c r="D170" s="6"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
     </row>
-    <row r="171" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C171" s="6"/>
       <c r="D171" s="5"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
     </row>
-    <row r="172" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C172" s="5"/>
       <c r="D172" s="6"/>
       <c r="E172" s="1"/>
       <c r="F172" s="2"/>
     </row>
-    <row r="173" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C173" s="6"/>
       <c r="D173" s="5"/>
       <c r="E173" s="1"/>
       <c r="F173" s="2"/>
     </row>
-    <row r="174" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C174" s="5"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
     </row>
-    <row r="175" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C175" s="6"/>
       <c r="D175" s="5"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
     </row>
-    <row r="176" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C176" s="5"/>
       <c r="D176" s="6"/>
       <c r="E176" s="2"/>
